--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -74,7 +74,13 @@
     <t>Сидоров2 Сергей Васильевич</t>
   </si>
   <si>
+    <t>кмд</t>
+  </si>
+  <si>
     <t>Сидоров3 Сергей Васильевич</t>
+  </si>
+  <si>
+    <t>отпуск</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1288,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1388,7 +1394,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>10</v>
@@ -1428,10 +1434,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>10</v>
